--- a/network/case1/case1_firefighter_route.xlsx
+++ b/network/case1/case1_firefighter_route.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專題研究\code\githubrepo\final\network\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C453986-2D9C-4641-94B5-4905E9342AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4CE1E-9393-453E-98FA-ACF96DAF8C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -406,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -442,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -453,16 +466,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -487,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -504,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,16 +585,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
       <c r="D11">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,16 +636,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,16 +687,16 @@
         <v>1</v>
       </c>
       <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
       <c r="D16">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -691,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,16 +721,16 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,16 +738,16 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,16 +772,16 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -776,16 +789,16 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,16 +857,16 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,16 +891,16 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
       <c r="D32">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,13 +979,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,16 +993,16 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,16 +1010,16 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
         <v>10</v>
       </c>
-      <c r="C36">
-        <v>13</v>
-      </c>
       <c r="D36">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,13 +1064,13 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,16 +1078,16 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,13 +1098,13 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,16 +1112,16 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1119,13 +1132,13 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,16 +1214,16 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1218,16 +1231,16 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,16 +1282,16 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,16 +1316,16 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,16 +1350,16 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,16 +1384,16 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,13 +1438,13 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,16 +1469,16 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,13 +1540,13 @@
         <v>20</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,16 +1554,16 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,13 +1574,13 @@
         <v>21</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,16 +1588,16 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,16 +1605,16 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,16 +1622,16 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1643,16 +1656,84 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>207.6342938919291</v>
+        <v>20</v>
       </c>
       <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>22</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>23</v>
+      </c>
+      <c r="C76">
         <v>18</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
